--- a/biology/Histoire de la zoologie et de la botanique/William_Lonsdale/William_Lonsdale.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Lonsdale/William_Lonsdale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Lonsdale (9 septembre 1794 – 11 novembre 1871) est un géologue et paléontologue britannique.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à Bath et s'engage d'abord dans une carrière militaire. Il participe à la bataille de Salamanque et à celle de Waterloo pour lesquelles il a reçu des médailles. Il se retire comme lieutenant.
 Il réside pendant plusieurs années à Batheaston où il collectionne des roches et des fossiles qu'il présente à la Literary and Scientific Institution of Bath - l'institut littéraire et scientifique de Bath. Il devient conservateur honoraire du département d'histoire naturelle du muséum de cette ville jusqu'en 1829, date à laquelle il est engagé comme secrétaire assistant et conservateur de la Geological Society of London à Somerset House. Il tient ces postes jusqu'en 1842 quand la maladie l'oblige à démissionner.
@@ -547,7 +561,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « William Lonsdale », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).
 </t>
